--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>519931.0071694174</v>
+        <v>525452.9133955587</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17965173.4684127</v>
+        <v>16722200.63474371</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3370884.082190458</v>
+        <v>2152646.40791149</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6699957.167531892</v>
+        <v>7238991.185605895</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>372.5196984223302</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>231.2672068114807</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -817,25 +819,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>105.6319392430749</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>35.34780583513506</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.9668233852416</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>205.4719628123491</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1069,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>18.05677735225751</v>
+        <v>16.92574903168972</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>385.1336873846622</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>237.4363305019476</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>116.0222355487762</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>24.34318456170454</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1373,22 +1375,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>317.7395920995095</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>385.1336873846622</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>46.2253027104011</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.9355430025911</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>92.10216232758322</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1771,10 +1773,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>94.4312367321524</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1907,10 +1909,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>407.1510557105013</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2014,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7884964950064</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3041,7 +3043,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3436,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3740,10 +3742,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0.03581669923310528</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225717</v>
+        <v>18.05677735225731</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.03581669923310528</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>337.9310404061347</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5168019860615</v>
+        <v>124.6962773732646</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1560.669185817733</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="C2" t="n">
-        <v>1560.669185817733</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="D2" t="n">
-        <v>1124.759400992177</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E2" t="n">
-        <v>1124.759400992177</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F2" t="n">
-        <v>748.4768773332578</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>347.0790459565217</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>57.94889139973796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>57.53210202687796</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>57.53210202687796</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>57.53210202687796</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>737.032725467017</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>1448.992488049632</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>1448.992488049632</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2160.952250632246</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2707.451036590841</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2792.953227527735</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2792.953227527735</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2792.953227527735</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2792.953227527735</v>
+        <v>2436.457587227912</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.097772938769</v>
+        <v>2031.602132638945</v>
       </c>
       <c r="X2" t="n">
-        <v>1968.95530951808</v>
+        <v>1612.459669218256</v>
       </c>
       <c r="Y2" t="n">
-        <v>1560.669185817733</v>
+        <v>1204.173545517909</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>563.7038470181708</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>457.247385854813</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>362.1570970013663</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>268.03668232832</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>184.6528439444816</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>99.26775421066549</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>57.53210202687796</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>382.0904269930903</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1062.823947063468</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1062.823947063468</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1062.823947063468</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1062.823947063468</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1062.823947063468</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1603.599085411347</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1603.599085411347</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1720.771863505687</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1657.31642595407</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1527.137782284672</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1350.80123528464</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1151.683717346639</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>966.3609630798333</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>811.4935273187132</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>685.0077480979339</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1107.262876266086</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C4" t="n">
-        <v>1107.262876266086</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D4" t="n">
-        <v>1000.563947737728</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E4" t="n">
-        <v>830.8059439884648</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F4" t="n">
-        <v>654.0988899502211</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="G4" t="n">
-        <v>488.5076149760487</v>
+        <v>89.10607090755286</v>
       </c>
       <c r="H4" t="n">
-        <v>348.6054406664232</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>259.9454914410986</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>346.5251766057884</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>621.283631176924</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>1039.493512944885</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1498.977380125798</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1941.236183283443</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2360.905432509224</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2708.412326479566</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2855.18728004927</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2855.18728004927</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2609.307833627725</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>2330.874832880831</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>2043.919324751261</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1771.892920337553</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1526.501165670965</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y4" t="n">
-        <v>1299.081494985073</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>347.0790459565217</v>
+        <v>1212.215900752673</v>
       </c>
       <c r="C5" t="n">
-        <v>347.0790459565217</v>
+        <v>1212.215900752673</v>
       </c>
       <c r="D5" t="n">
-        <v>347.0790459565217</v>
+        <v>776.3061159271172</v>
       </c>
       <c r="E5" t="n">
-        <v>347.0790459565217</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F5" t="n">
-        <v>347.0790459565217</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>347.0790459565217</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>57.94889139973796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>57.53210202687796</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>57.53210202687796</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>769.4918646094927</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>1481.451627192107</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>2193.411389774722</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>2193.411389774722</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2193.411389774722</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2707.451036590841</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2792.953227527735</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2572.886000400774</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2313.66369771779</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1951.046747651617</v>
+        <v>2462.513389247237</v>
       </c>
       <c r="W5" t="n">
-        <v>1546.19129306265</v>
+        <v>2057.65793465827</v>
       </c>
       <c r="X5" t="n">
-        <v>1127.048829641961</v>
+        <v>1638.515471237581</v>
       </c>
       <c r="Y5" t="n">
-        <v>718.7627059416142</v>
+        <v>1638.515471237581</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>563.7038470181708</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>457.247385854813</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>362.1570970013663</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>268.03668232832</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>184.6528439444816</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>99.26775421066549</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>57.53210202687796</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>57.53210202687796</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>57.53210202687796</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>769.4918646094927</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1481.451627192107</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1720.771863505687</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1720.771863505687</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1720.771863505687</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1720.771863505687</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1720.771863505687</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1657.31642595407</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1527.137782284672</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1350.80123528464</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1151.683717346639</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>966.3609630798333</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>811.4935273187132</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>685.0077480979339</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>908.0281391038093</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>735.4664275870342</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>569.5884347885569</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>399.8304310392941</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>223.1233770010503</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>57.53210202687796</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>57.53210202687796</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>144.1117871915678</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>418.8702417627034</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>837.0801235306644</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1296.563990711577</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1738.822793869222</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2158.492043095003</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2505.998937065345</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2674.191711929678</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2674.191711929678</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2655.952542886993</v>
+        <v>2652.964110237802</v>
       </c>
       <c r="T7" t="n">
-        <v>2410.073096465449</v>
+        <v>2407.084663816257</v>
       </c>
       <c r="U7" t="n">
-        <v>2131.640095718554</v>
+        <v>2128.651663069363</v>
       </c>
       <c r="V7" t="n">
-        <v>1844.684587588984</v>
+        <v>1841.696154939793</v>
       </c>
       <c r="W7" t="n">
-        <v>1572.658183175276</v>
+        <v>1569.669750526085</v>
       </c>
       <c r="X7" t="n">
-        <v>1327.266428508688</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y7" t="n">
-        <v>1099.846757822796</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>887.2141523672663</v>
+        <v>1637.046905653769</v>
       </c>
       <c r="C8" t="n">
-        <v>887.2141523672663</v>
+        <v>1198.904432837192</v>
       </c>
       <c r="D8" t="n">
-        <v>887.2141523672663</v>
+        <v>762.9946480116369</v>
       </c>
       <c r="E8" t="n">
-        <v>887.2141523672663</v>
+        <v>373.970721360463</v>
       </c>
       <c r="F8" t="n">
-        <v>459.3467227764741</v>
+        <v>373.970721360463</v>
       </c>
       <c r="G8" t="n">
-        <v>57.94889139973796</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H8" t="n">
-        <v>57.94889139973796</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I8" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J8" t="n">
-        <v>57.53210202687796</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K8" t="n">
-        <v>740.7258135960539</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L8" t="n">
-        <v>1452.685576178669</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="M8" t="n">
-        <v>1452.685576178669</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="N8" t="n">
-        <v>1452.685576178669</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O8" t="n">
-        <v>2164.645338761284</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P8" t="n">
-        <v>2876.605101343898</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q8" t="n">
-        <v>2876.605101343898</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R8" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S8" t="n">
-        <v>2792.953227527735</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T8" t="n">
-        <v>2572.886000400774</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="U8" t="n">
-        <v>2313.66369771779</v>
+        <v>3658.247467914853</v>
       </c>
       <c r="V8" t="n">
-        <v>1951.046747651617</v>
+        <v>3295.630517848679</v>
       </c>
       <c r="W8" t="n">
-        <v>1546.19129306265</v>
+        <v>2890.775063259713</v>
       </c>
       <c r="X8" t="n">
-        <v>1127.048829641961</v>
+        <v>2471.632599839023</v>
       </c>
       <c r="Y8" t="n">
-        <v>887.2141523672663</v>
+        <v>2063.346476138677</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C9" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D9" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E9" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F9" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G9" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H9" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I9" t="n">
-        <v>83.59577518733556</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J9" t="n">
-        <v>408.1541001535479</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K9" t="n">
-        <v>1088.887620223925</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="L9" t="n">
-        <v>1088.887620223925</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="M9" t="n">
-        <v>1088.887620223925</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="N9" t="n">
-        <v>1088.887620223925</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="O9" t="n">
-        <v>1088.887620223925</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="P9" t="n">
-        <v>1088.887620223925</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q9" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R9" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S9" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T9" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U9" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V9" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W9" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X9" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y9" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>745.6081181498621</v>
+        <v>793.9176148484312</v>
       </c>
       <c r="C10" t="n">
-        <v>573.046406633087</v>
+        <v>621.3559033316561</v>
       </c>
       <c r="D10" t="n">
-        <v>573.046406633087</v>
+        <v>455.4779105331788</v>
       </c>
       <c r="E10" t="n">
-        <v>403.2884028838243</v>
+        <v>285.7199067839161</v>
       </c>
       <c r="F10" t="n">
-        <v>286.0942255618281</v>
+        <v>109.0128527456723</v>
       </c>
       <c r="G10" t="n">
-        <v>286.0942255618281</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H10" t="n">
-        <v>146.1920512522026</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I10" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J10" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K10" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L10" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M10" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N10" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O10" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P10" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q10" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R10" t="n">
-        <v>2652.77389063505</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S10" t="n">
-        <v>2493.532521933046</v>
+        <v>2541.842018631615</v>
       </c>
       <c r="T10" t="n">
-        <v>2247.653075511501</v>
+        <v>2295.96257221007</v>
       </c>
       <c r="U10" t="n">
-        <v>1969.220074764607</v>
+        <v>2017.529571463176</v>
       </c>
       <c r="V10" t="n">
-        <v>1682.264566635037</v>
+        <v>1730.574063333606</v>
       </c>
       <c r="W10" t="n">
-        <v>1410.238162221329</v>
+        <v>1458.547658919898</v>
       </c>
       <c r="X10" t="n">
-        <v>1164.846407554741</v>
+        <v>1213.15590425331</v>
       </c>
       <c r="Y10" t="n">
-        <v>937.4267368688493</v>
+        <v>985.7362335674184</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1218.021489148988</v>
+        <v>1637.046905653769</v>
       </c>
       <c r="C11" t="n">
-        <v>779.8790163324115</v>
+        <v>1198.904432837192</v>
       </c>
       <c r="D11" t="n">
-        <v>458.9299334036141</v>
+        <v>762.9946480116369</v>
       </c>
       <c r="E11" t="n">
-        <v>458.9299334036141</v>
+        <v>373.970721360463</v>
       </c>
       <c r="F11" t="n">
-        <v>458.9299334036141</v>
+        <v>373.970721360463</v>
       </c>
       <c r="G11" t="n">
-        <v>57.53210202687796</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H11" t="n">
-        <v>57.53210202687796</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I11" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J11" t="n">
-        <v>492.7867894797959</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K11" t="n">
-        <v>1204.746552062411</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L11" t="n">
-        <v>1204.746552062411</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="M11" t="n">
-        <v>1204.746552062411</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="N11" t="n">
-        <v>1204.746552062411</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O11" t="n">
-        <v>1448.992488049632</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P11" t="n">
-        <v>2160.952250632246</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q11" t="n">
-        <v>2707.451036590841</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R11" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S11" t="n">
-        <v>2876.605101343898</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T11" t="n">
-        <v>2876.605101343898</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="U11" t="n">
-        <v>2876.605101343898</v>
+        <v>3658.247467914853</v>
       </c>
       <c r="V11" t="n">
-        <v>2876.605101343898</v>
+        <v>3295.630517848679</v>
       </c>
       <c r="W11" t="n">
-        <v>2471.749646754932</v>
+        <v>2890.775063259713</v>
       </c>
       <c r="X11" t="n">
-        <v>2052.607183334243</v>
+        <v>2471.632599839023</v>
       </c>
       <c r="Y11" t="n">
-        <v>1644.321059633896</v>
+        <v>2063.346476138677</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C12" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D12" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E12" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F12" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G12" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H12" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I12" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J12" t="n">
-        <v>382.0904269930903</v>
+        <v>408.9821023970316</v>
       </c>
       <c r="K12" t="n">
-        <v>468.0731622909966</v>
+        <v>1089.715622467409</v>
       </c>
       <c r="L12" t="n">
-        <v>468.0731622909966</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M12" t="n">
-        <v>468.0731622909966</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N12" t="n">
-        <v>468.0731622909966</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O12" t="n">
-        <v>468.0731622909966</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P12" t="n">
-        <v>1180.032924873611</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q12" t="n">
-        <v>1720.771863505687</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R12" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S12" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T12" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U12" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V12" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W12" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X12" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y12" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1136.590262638759</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C13" t="n">
-        <v>964.0285511219844</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D13" t="n">
-        <v>798.1505583235071</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E13" t="n">
-        <v>628.3925545742443</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F13" t="n">
-        <v>451.6855005360005</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G13" t="n">
-        <v>286.0942255618281</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H13" t="n">
-        <v>146.1920512522026</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I13" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J13" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K13" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L13" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M13" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N13" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O13" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P13" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q13" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R13" t="n">
-        <v>2652.77389063505</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S13" t="n">
-        <v>2652.77389063505</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T13" t="n">
-        <v>2406.894444213505</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U13" t="n">
-        <v>2360.202219253504</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V13" t="n">
-        <v>2073.246711123934</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W13" t="n">
-        <v>1801.220306710226</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X13" t="n">
-        <v>1555.828552043638</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y13" t="n">
-        <v>1328.408881357747</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>929.4493196851595</v>
+        <v>1637.04690565377</v>
       </c>
       <c r="C14" t="n">
-        <v>491.3068468685828</v>
+        <v>1198.904432837193</v>
       </c>
       <c r="D14" t="n">
-        <v>491.3068468685828</v>
+        <v>762.9946480116378</v>
       </c>
       <c r="E14" t="n">
-        <v>57.53210202687796</v>
+        <v>329.2199031699329</v>
       </c>
       <c r="F14" t="n">
-        <v>57.53210202687796</v>
+        <v>84.84056680367922</v>
       </c>
       <c r="G14" t="n">
-        <v>57.53210202687796</v>
+        <v>84.84056680367922</v>
       </c>
       <c r="H14" t="n">
-        <v>57.53210202687796</v>
+        <v>84.84056680367922</v>
       </c>
       <c r="I14" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J14" t="n">
-        <v>492.7867894797959</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K14" t="n">
-        <v>1204.746552062411</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L14" t="n">
-        <v>1204.746552062411</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="M14" t="n">
-        <v>1204.746552062411</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="N14" t="n">
-        <v>1204.746552062411</v>
+        <v>1697.046479425607</v>
       </c>
       <c r="O14" t="n">
-        <v>1448.992488049632</v>
+        <v>2677.226145995913</v>
       </c>
       <c r="P14" t="n">
-        <v>2160.952250632246</v>
+        <v>3505.53602082931</v>
       </c>
       <c r="Q14" t="n">
-        <v>2707.451036590841</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R14" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="S14" t="n">
-        <v>2876.605101343898</v>
+        <v>4137.536997724798</v>
       </c>
       <c r="T14" t="n">
-        <v>2783.572614144319</v>
+        <v>3917.469770597837</v>
       </c>
       <c r="U14" t="n">
-        <v>2524.350311461336</v>
+        <v>3658.247467914854</v>
       </c>
       <c r="V14" t="n">
-        <v>2161.733361395162</v>
+        <v>3295.63051784868</v>
       </c>
       <c r="W14" t="n">
-        <v>1756.877906806195</v>
+        <v>2890.775063259714</v>
       </c>
       <c r="X14" t="n">
-        <v>1337.735443385506</v>
+        <v>2471.632599839024</v>
       </c>
       <c r="Y14" t="n">
-        <v>929.4493196851595</v>
+        <v>2063.346476138678</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C15" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D15" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E15" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F15" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G15" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H15" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I15" t="n">
-        <v>83.59577518733556</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J15" t="n">
-        <v>408.1541001535479</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q15" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R15" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S15" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T15" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U15" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V15" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W15" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X15" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y15" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>745.6081181498621</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C16" t="n">
-        <v>573.046406633087</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D16" t="n">
-        <v>407.1684138346097</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E16" t="n">
-        <v>311.783326226375</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F16" t="n">
-        <v>311.783326226375</v>
+        <v>250.0150524049916</v>
       </c>
       <c r="G16" t="n">
-        <v>146.1920512522026</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="H16" t="n">
-        <v>146.1920512522026</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I16" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J16" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K16" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L16" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M16" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N16" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O16" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P16" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q16" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R16" t="n">
-        <v>2652.77389063505</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S16" t="n">
-        <v>2493.532521933046</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T16" t="n">
-        <v>2247.653075511501</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U16" t="n">
-        <v>1969.220074764607</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V16" t="n">
-        <v>1682.264566635037</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W16" t="n">
-        <v>1410.238162221329</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X16" t="n">
-        <v>1164.846407554741</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y16" t="n">
-        <v>937.4267368688493</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1218.579474241943</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>780.4370014253666</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>780.4370014253666</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>346.6622565836617</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>346.6622565836617</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>346.6622565836617</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>57.53210202687796</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>492.7867894797959</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>737.032725467017</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>1448.992488049632</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>1448.992488049632</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N17" t="n">
-        <v>1448.992488049632</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O17" t="n">
-        <v>1448.992488049632</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="P17" t="n">
-        <v>2160.952250632246</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>2707.451036590841</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
-        <v>2876.605101343898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>2876.605101343898</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>2656.537874216937</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>2397.315571533954</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>2034.69862146778</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>1629.843166878813</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>1218.579474241943</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>1218.579474241943</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>563.7038470181708</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>457.247385854813</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>362.1570970013663</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>268.03668232832</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>184.6528439444816</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>99.26775421066549</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>83.59577518733556</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>408.1541001535479</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1062.860146779272</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1603.599085411347</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1720.771863505687</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1657.31642595407</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1527.137782284672</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1350.80123528464</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1151.683717346639</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>966.3609630798333</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>811.4935273187132</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>685.0077480979339</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>904.8494868518655</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C19" t="n">
-        <v>732.2877753350905</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D19" t="n">
-        <v>566.4097825366132</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E19" t="n">
-        <v>396.6517787873505</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F19" t="n">
-        <v>219.9447247491067</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G19" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>144.1117871915678</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>418.8702417627034</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>837.0801235306644</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1296.563990711577</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1738.822793869222</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2158.492043095003</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2505.998937065345</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2674.191711929678</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2652.77389063505</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2652.77389063505</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2406.894444213505</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>2128.46144346661</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V19" t="n">
-        <v>1841.50593533704</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W19" t="n">
-        <v>1569.479530923332</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X19" t="n">
-        <v>1324.087776256745</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y19" t="n">
-        <v>1096.668105570853</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C23" t="n">
         <v>2090.757574835212</v>
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,49 +5992,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M23" t="n">
-        <v>3603.973621145286</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N23" t="n">
-        <v>3603.973621145286</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3346.878440713113</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>3174.316729196338</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>3008.438736397861</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>2838.680732648598</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>2661.973678610354</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5094.802844496297</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>4848.923398074752</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>4570.490397327858</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>4283.534889198289</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>4011.50848478458</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>3766.116730117992</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>3538.697059432101</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C29" t="n">
         <v>2090.757574835212</v>
@@ -6449,64 +6451,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O29" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
         <v>391.8077842004234</v>
@@ -6707,43 +6709,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,10 +6943,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>1637.04690565377</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>1637.04690565377</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>84.84056680367922</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="K41" t="n">
-        <v>926.893353805728</v>
+        <v>918.7740693889972</v>
       </c>
       <c r="L41" t="n">
-        <v>2001.953320058587</v>
+        <v>1963.518315095385</v>
       </c>
       <c r="M41" t="n">
-        <v>3159.001155269138</v>
+        <v>1963.518315095385</v>
       </c>
       <c r="N41" t="n">
-        <v>4284.732138705585</v>
+        <v>3008.262560801772</v>
       </c>
       <c r="O41" t="n">
-        <v>4284.732138705585</v>
+        <v>3988.442227372079</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.042013538981</v>
+        <v>3988.442227372079</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538981</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>4137.536997724798</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>3917.469770597837</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>3658.247467914854</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>3295.63051784868</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>2890.775063259714</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>2471.632599839024</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2063.346476138678</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.866520528573</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.412455590541</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.089701323735</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>970.9960463903949</v>
+        <v>953.1589835504346</v>
       </c>
       <c r="C43" t="n">
-        <v>798.4343348736198</v>
+        <v>780.5972720336596</v>
       </c>
       <c r="D43" t="n">
-        <v>632.5563420751425</v>
+        <v>614.7192792351823</v>
       </c>
       <c r="E43" t="n">
-        <v>462.7983383258798</v>
+        <v>444.9612754859195</v>
       </c>
       <c r="F43" t="n">
-        <v>286.091284287636</v>
+        <v>268.2542214476757</v>
       </c>
       <c r="G43" t="n">
-        <v>120.5000093134636</v>
+        <v>102.6629464735034</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2455.203940912074</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.770940165179</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.81543203561</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.789027621901</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795274</v>
+        <v>1372.397272955314</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.977602269422</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1609.702262392895</v>
+        <v>1637.04690565377</v>
       </c>
       <c r="C44" t="n">
-        <v>1609.702262392895</v>
+        <v>1637.04690565377</v>
       </c>
       <c r="D44" t="n">
-        <v>1609.702262392895</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E44" t="n">
-        <v>1175.92751755119</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F44" t="n">
-        <v>748.0600879603978</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G44" t="n">
-        <v>346.6622565836617</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H44" t="n">
-        <v>57.53210202687796</v>
+        <v>84.84056680367922</v>
       </c>
       <c r="I44" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J44" t="n">
-        <v>492.7867894797959</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K44" t="n">
-        <v>1204.746552062411</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L44" t="n">
-        <v>1618.146552802689</v>
+        <v>1697.046479425607</v>
       </c>
       <c r="M44" t="n">
-        <v>1618.146552802689</v>
+        <v>1697.046479425607</v>
       </c>
       <c r="N44" t="n">
-        <v>1618.146552802689</v>
+        <v>1697.046479425607</v>
       </c>
       <c r="O44" t="n">
-        <v>2330.106315385303</v>
+        <v>2677.226145995913</v>
       </c>
       <c r="P44" t="n">
-        <v>2330.106315385303</v>
+        <v>3505.53602082931</v>
       </c>
       <c r="Q44" t="n">
-        <v>2876.605101343898</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R44" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="S44" t="n">
-        <v>2792.953227527735</v>
+        <v>4137.536997724798</v>
       </c>
       <c r="T44" t="n">
-        <v>2572.886000400774</v>
+        <v>3917.469770597837</v>
       </c>
       <c r="U44" t="n">
-        <v>2313.66369771779</v>
+        <v>3658.247467914854</v>
       </c>
       <c r="V44" t="n">
-        <v>1951.046747651617</v>
+        <v>3295.63051784868</v>
       </c>
       <c r="W44" t="n">
-        <v>1951.046747651617</v>
+        <v>2890.775063259714</v>
       </c>
       <c r="X44" t="n">
-        <v>1951.046747651617</v>
+        <v>2471.632599839024</v>
       </c>
       <c r="Y44" t="n">
-        <v>1609.702262392895</v>
+        <v>2063.346476138678</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C45" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D45" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E45" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F45" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G45" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H45" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I45" t="n">
-        <v>83.59577518733556</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J45" t="n">
-        <v>408.1541001535479</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K45" t="n">
-        <v>408.1541001535479</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L45" t="n">
-        <v>408.1541001535479</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M45" t="n">
-        <v>408.1541001535479</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N45" t="n">
-        <v>408.1541001535479</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O45" t="n">
-        <v>408.1541001535479</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P45" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q45" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R45" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S45" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T45" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U45" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V45" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W45" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X45" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y45" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0285511219844</v>
+        <v>997.6039452442234</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0285511219844</v>
+        <v>825.0422337274483</v>
       </c>
       <c r="D46" t="n">
-        <v>798.1505583235071</v>
+        <v>825.0422337274483</v>
       </c>
       <c r="E46" t="n">
-        <v>628.3925545742443</v>
+        <v>655.2842299781855</v>
       </c>
       <c r="F46" t="n">
-        <v>451.6855005360005</v>
+        <v>478.5771759399417</v>
       </c>
       <c r="G46" t="n">
-        <v>286.0942255618281</v>
+        <v>312.9859009657694</v>
       </c>
       <c r="H46" t="n">
-        <v>146.1920512522026</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="I46" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J46" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K46" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L46" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M46" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N46" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O46" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P46" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q46" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R46" t="n">
-        <v>2674.191711929678</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="S46" t="n">
-        <v>2674.191711929678</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="T46" t="n">
-        <v>2428.312265508133</v>
+        <v>2433.786119617446</v>
       </c>
       <c r="U46" t="n">
-        <v>2149.879264761238</v>
+        <v>2155.353118870551</v>
       </c>
       <c r="V46" t="n">
-        <v>1862.923756631669</v>
+        <v>1868.397610740981</v>
       </c>
       <c r="W46" t="n">
-        <v>1590.89735221796</v>
+        <v>1596.371206327273</v>
       </c>
       <c r="X46" t="n">
-        <v>1345.505597551373</v>
+        <v>1350.979451660686</v>
       </c>
       <c r="Y46" t="n">
-        <v>1118.085926865481</v>
+        <v>1123.559780974794</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7985,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>686.3642661011506</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>719.1512753359746</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>719.1512753359746</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>546.2375134827066</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>519.2319664809283</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,22 +8291,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.7376124379591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>690.0946581506828</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>346.4825480643344</v>
       </c>
       <c r="O8" t="n">
-        <v>719.1512753359748</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P8" t="n">
-        <v>719.1512753359743</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q9" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>346.4825480643344</v>
       </c>
       <c r="O11" t="n">
-        <v>246.7130666537587</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,10 +8771,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>86.85124777566296</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>346.4825480643353</v>
       </c>
       <c r="O14" t="n">
-        <v>246.7130666537587</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>246.7130666537587</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>719.1512753359746</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>719.1512753359746</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,22 +9640,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>756.3484258820577</v>
       </c>
       <c r="P23" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9881,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10121,16 +10123,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>834.6527275730841</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10355,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10589,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>832.9621348837863</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>64.23492870285418</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,10 +11299,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>417.5757583235131</v>
+        <v>346.4825480643353</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22550,22 +22552,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>51.06905687255409</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -22604,7 +22606,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>127.7235737540311</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22705,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>58.58727362741766</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>103.1553467313942</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.0697513948171</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -22802,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>153.5188177531626</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22957,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>139.5921776627258</v>
+        <v>140.7232059832936</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>44.3033100086256</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>166.7669319613955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>58.91774794908514</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>113.8110948777904</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>44.3033100086256</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>229.4233680290246</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>181.6532122922932</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23513,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>125.7643925281085</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>73.62918697961771</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.799983075981118</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.146865729424206</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5148702780668</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142721</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5148702780668</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>66.27222205720835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.38363054573577</v>
+        <v>65.20415515853259</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>469777.7215928417</v>
+        <v>448618.3765930354</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>469777.7215928417</v>
+        <v>448618.3765930353</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>469777.7215928417</v>
+        <v>607523.0640226753</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469777.7215928417</v>
+        <v>607523.0640226753</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469777.7215928417</v>
+        <v>607523.0640226754</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>469777.7215928417</v>
+        <v>698888.5997108205</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>698888.5997108204</v>
+        <v>698888.5997108205</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>698888.5997108205</v>
+        <v>698888.5997108204</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>698888.5997108204</v>
+        <v>698888.5997108205</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>698888.5997108204</v>
+        <v>607523.0640226754</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>469777.7215928416</v>
+        <v>607523.0640226754</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177071.1065986517</v>
+        <v>169095.6142289526</v>
       </c>
       <c r="C2" t="n">
-        <v>177071.1065986517</v>
+        <v>169095.6142289526</v>
       </c>
       <c r="D2" t="n">
-        <v>177071.1065986517</v>
+        <v>228990.8105176903</v>
       </c>
       <c r="E2" t="n">
-        <v>177071.1065986518</v>
+        <v>228990.8105176903</v>
       </c>
       <c r="F2" t="n">
-        <v>177071.1065986517</v>
+        <v>228990.8105176903</v>
       </c>
       <c r="G2" t="n">
-        <v>177071.1065986517</v>
+        <v>263428.7920686761</v>
       </c>
       <c r="H2" t="n">
         <v>263428.7920686761</v>
@@ -26350,10 +26352,10 @@
         <v>263428.7920686761</v>
       </c>
       <c r="O2" t="n">
-        <v>263428.7920686761</v>
+        <v>228990.8105176902</v>
       </c>
       <c r="P2" t="n">
-        <v>177071.1065986517</v>
+        <v>228990.8105176903</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241004.1328444178</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>120456.7261630936</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>61110.89210613183</v>
       </c>
       <c r="H3" t="n">
-        <v>150852.7017106108</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>188161.6162840057</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>98144.1370162042</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27641.95419813663</v>
+        <v>26396.92784106698</v>
       </c>
       <c r="C4" t="n">
-        <v>27641.95419813663</v>
+        <v>26396.92784106698</v>
       </c>
       <c r="D4" t="n">
-        <v>27641.95419813663</v>
+        <v>35746.95848301868</v>
       </c>
       <c r="E4" t="n">
-        <v>27641.95419813663</v>
+        <v>35746.95848301868</v>
       </c>
       <c r="F4" t="n">
-        <v>27641.95419813663</v>
+        <v>35746.95848301869</v>
       </c>
       <c r="G4" t="n">
-        <v>27641.95419813663</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26445,7 +26447,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
         <v>41122.95192991271</v>
@@ -26454,10 +26456,10 @@
         <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991271</v>
+        <v>35746.95848301869</v>
       </c>
       <c r="P4" t="n">
-        <v>27641.95419813663</v>
+        <v>35746.95848301869</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77351.99754042726</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>77351.99754042726</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>77351.99754042726</v>
+        <v>97789.67084742259</v>
       </c>
       <c r="E5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="F5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742261</v>
       </c>
       <c r="G5" t="n">
-        <v>43724.39754042725</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>64162.07084742261</v>
       </c>
       <c r="P5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742261</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-168926.97798433</v>
+        <v>-155213.536757917</v>
       </c>
       <c r="C6" t="n">
-        <v>72077.15486008779</v>
+        <v>68486.16182612789</v>
       </c>
       <c r="D6" t="n">
-        <v>72077.15486008782</v>
+        <v>-25002.54497584453</v>
       </c>
       <c r="E6" t="n">
-        <v>105704.7548600879</v>
+        <v>129081.781187249</v>
       </c>
       <c r="F6" t="n">
-        <v>105704.7548600878</v>
+        <v>129081.781187249</v>
       </c>
       <c r="G6" t="n">
-        <v>105704.7548600878</v>
+        <v>83476.70942683902</v>
       </c>
       <c r="H6" t="n">
-        <v>-6265.100177639935</v>
+        <v>144587.6015329708</v>
       </c>
       <c r="I6" t="n">
         <v>144587.6015329708</v>
       </c>
       <c r="J6" t="n">
-        <v>-43574.0147510348</v>
+        <v>-30063.74718473526</v>
       </c>
       <c r="K6" t="n">
-        <v>144587.6015329708</v>
+        <v>144587.6015329709</v>
       </c>
       <c r="L6" t="n">
-        <v>144587.6015329709</v>
+        <v>46443.46451676667</v>
       </c>
       <c r="M6" t="n">
         <v>144587.6015329708</v>
@@ -26558,10 +26560,10 @@
         <v>144587.6015329708</v>
       </c>
       <c r="O6" t="n">
-        <v>144587.6015329708</v>
+        <v>129081.7811872489</v>
       </c>
       <c r="P6" t="n">
-        <v>105704.7548600878</v>
+        <v>129081.781187249</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="E4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="F4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="G4" t="n">
-        <v>719.1512753359746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="P4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>222.963285499505</v>
       </c>
       <c r="H4" t="n">
-        <v>559.1092280487708</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>719.1512753359743</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>222.963285499505</v>
       </c>
       <c r="P4" t="n">
-        <v>559.1092280487708</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>686.3642661011506</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>719.1512753359746</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>719.1512753359746</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>546.2375134827066</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>519.2319664809283</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.7376124379591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35100,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>690.0946581506828</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>346.4825480643344</v>
       </c>
       <c r="O8" t="n">
-        <v>719.1512753359748</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P8" t="n">
-        <v>719.1512753359743</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q9" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,13 +35421,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>346.4825480643344</v>
       </c>
       <c r="O11" t="n">
-        <v>246.7130666537587</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35489,10 +35491,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>86.85124777566296</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,7 +35649,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>346.4825480643353</v>
       </c>
       <c r="O14" t="n">
-        <v>246.7130666537587</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>246.7130666537587</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>719.1512753359746</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>719.1512753359746</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36056,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36358,22 +36360,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>756.3484258820577</v>
       </c>
       <c r="P23" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36601,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,16 +36843,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>834.6527275730841</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37075,10 +37077,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37309,13 +37311,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>832.9621348837863</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>64.23492870285418</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37944,7 +37946,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38017,10 +38019,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>417.5757583235131</v>
+        <v>346.4825480643353</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>525452.9133955587</v>
+        <v>523660.6908043288</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16722200.63474371</v>
+        <v>16722200.63474372</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2152646.40791149</v>
+        <v>2152646.407911491</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -673,10 +673,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>35.16791248334732</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>231.2672068114807</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,13 +828,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>35.34780583513506</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>240.2737862279046</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>205.4719628123491</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>257.62495382267</v>
       </c>
     </row>
     <row r="6">
@@ -1071,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S7" t="n">
-        <v>16.92574903168972</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>385.1336873846622</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>351.674857425447</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170454</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1375,22 +1375,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>385.1336873846622</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>73.09150046283796</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1618,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>241.9355430025911</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>337.6783262792264</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3742,10 +3742,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03581669923310528</v>
+        <v>264.3405316074833</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361651</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225731</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03581669923310528</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3994,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>36.99641634553327</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>124.6962773732646</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1204.173545517909</v>
+        <v>1824.618792525831</v>
       </c>
       <c r="C2" t="n">
-        <v>1204.173545517909</v>
+        <v>1386.476319709254</v>
       </c>
       <c r="D2" t="n">
-        <v>1204.173545517909</v>
+        <v>950.5665348836988</v>
       </c>
       <c r="E2" t="n">
-        <v>770.3988006762045</v>
+        <v>516.7917900419939</v>
       </c>
       <c r="F2" t="n">
-        <v>342.5313710854123</v>
+        <v>88.92436045120161</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
         <v>53.40121652862856</v>
@@ -4333,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4366,16 +4366,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2436.457587227912</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2031.602132638945</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>1612.459669218256</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y2" t="n">
-        <v>1204.173545517909</v>
+        <v>2250.918363010739</v>
       </c>
     </row>
     <row r="3">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>762.8950539462403</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C4" t="n">
-        <v>590.3333424294652</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D4" t="n">
-        <v>424.4553496309879</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E4" t="n">
-        <v>254.6973458817252</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>254.6973458817252</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>89.10607090755286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
         <v>53.40121652862856</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729424</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U4" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.551502431415</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W4" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X4" t="n">
-        <v>1182.133343351119</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y4" t="n">
-        <v>954.7136726652275</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1212.215900752673</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C5" t="n">
-        <v>1212.215900752673</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D5" t="n">
-        <v>776.3061159271172</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E5" t="n">
-        <v>342.5313710854123</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F5" t="n">
-        <v>342.5313710854123</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
         <v>342.5313710854123</v>
@@ -4570,16 +4570,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>2462.513389247237</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.65793465827</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>1638.515471237581</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>1638.515471237581</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S7" t="n">
-        <v>2652.964110237802</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T7" t="n">
-        <v>2407.084663816257</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>2128.651663069363</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1841.696154939793</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1569.669750526085</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1324.277995859497</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.046905653769</v>
+        <v>2109.248364062232</v>
       </c>
       <c r="C8" t="n">
-        <v>1198.904432837192</v>
+        <v>1671.105891245656</v>
       </c>
       <c r="D8" t="n">
-        <v>762.9946480116369</v>
+        <v>1235.1961064201</v>
       </c>
       <c r="E8" t="n">
-        <v>373.970721360463</v>
+        <v>801.4213615783951</v>
       </c>
       <c r="F8" t="n">
-        <v>373.970721360463</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="G8" t="n">
-        <v>373.970721360463</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H8" t="n">
-        <v>84.84056680367921</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I8" t="n">
         <v>84.42377743081921</v>
@@ -4810,22 +4810,22 @@
         <v>1354.028756841915</v>
       </c>
       <c r="L8" t="n">
-        <v>1354.028756841915</v>
+        <v>2398.773002548303</v>
       </c>
       <c r="M8" t="n">
-        <v>1354.028756841915</v>
+        <v>2398.773002548303</v>
       </c>
       <c r="N8" t="n">
-        <v>1697.046479425606</v>
+        <v>2398.773002548303</v>
       </c>
       <c r="O8" t="n">
-        <v>2677.226145995912</v>
+        <v>3378.952669118609</v>
       </c>
       <c r="P8" t="n">
-        <v>3505.536020829309</v>
+        <v>4207.262543952005</v>
       </c>
       <c r="Q8" t="n">
-        <v>4052.034806787904</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R8" t="n">
         <v>4221.18887154096</v>
@@ -4846,10 +4846,10 @@
         <v>2890.775063259713</v>
       </c>
       <c r="X8" t="n">
-        <v>2471.632599839023</v>
+        <v>2535.54793454714</v>
       </c>
       <c r="Y8" t="n">
-        <v>2063.346476138677</v>
+        <v>2535.54793454714</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>435.0457755574892</v>
       </c>
       <c r="K9" t="n">
-        <v>435.0457755574892</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L9" t="n">
-        <v>435.0457755574892</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M9" t="n">
-        <v>435.0457755574892</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N9" t="n">
-        <v>435.0457755574892</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O9" t="n">
-        <v>435.0457755574892</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P9" t="n">
         <v>1089.751822183213</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.9176148484312</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C10" t="n">
-        <v>621.3559033316561</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D10" t="n">
-        <v>455.4779105331788</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7199067839161</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F10" t="n">
-        <v>109.0128527456723</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G10" t="n">
         <v>84.42377743081921</v>
@@ -4989,25 +4989,25 @@
         <v>2701.083387333619</v>
       </c>
       <c r="S10" t="n">
-        <v>2541.842018631615</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T10" t="n">
-        <v>2295.96257221007</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U10" t="n">
-        <v>2017.529571463176</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V10" t="n">
-        <v>1730.574063333606</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W10" t="n">
-        <v>1458.547658919898</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X10" t="n">
-        <v>1213.15590425331</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y10" t="n">
-        <v>985.7362335674184</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1637.046905653769</v>
+        <v>1646.868981022621</v>
       </c>
       <c r="C11" t="n">
-        <v>1198.904432837192</v>
+        <v>1208.726508206044</v>
       </c>
       <c r="D11" t="n">
-        <v>762.9946480116369</v>
+        <v>1208.726508206044</v>
       </c>
       <c r="E11" t="n">
-        <v>373.970721360463</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="F11" t="n">
-        <v>373.970721360463</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="G11" t="n">
-        <v>373.970721360463</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H11" t="n">
-        <v>84.84056680367921</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I11" t="n">
         <v>84.42377743081921</v>
       </c>
       <c r="J11" t="n">
-        <v>519.6784648837371</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K11" t="n">
-        <v>1354.028756841915</v>
+        <v>918.7740693889972</v>
       </c>
       <c r="L11" t="n">
-        <v>1354.028756841915</v>
+        <v>1963.518315095385</v>
       </c>
       <c r="M11" t="n">
-        <v>1354.028756841915</v>
+        <v>1963.518315095385</v>
       </c>
       <c r="N11" t="n">
-        <v>1697.046479425606</v>
+        <v>1963.518315095385</v>
       </c>
       <c r="O11" t="n">
-        <v>2677.226145995912</v>
+        <v>2943.697981665691</v>
       </c>
       <c r="P11" t="n">
-        <v>3505.536020829309</v>
+        <v>3772.007856499088</v>
       </c>
       <c r="Q11" t="n">
-        <v>4052.034806787904</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R11" t="n">
         <v>4221.18887154096</v>
       </c>
       <c r="S11" t="n">
-        <v>4137.536997724797</v>
+        <v>4147.359073093649</v>
       </c>
       <c r="T11" t="n">
-        <v>3917.469770597836</v>
+        <v>3927.291845966688</v>
       </c>
       <c r="U11" t="n">
-        <v>3658.247467914853</v>
+        <v>3668.069543283705</v>
       </c>
       <c r="V11" t="n">
-        <v>3295.630517848679</v>
+        <v>3305.452593217531</v>
       </c>
       <c r="W11" t="n">
-        <v>2890.775063259713</v>
+        <v>2900.597138628564</v>
       </c>
       <c r="X11" t="n">
-        <v>2471.632599839023</v>
+        <v>2481.454675207875</v>
       </c>
       <c r="Y11" t="n">
-        <v>2063.346476138677</v>
+        <v>2073.168551507528</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>84.42377743081921</v>
       </c>
       <c r="I12" t="n">
-        <v>84.42377743081921</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J12" t="n">
-        <v>408.9821023970316</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K12" t="n">
-        <v>1089.715622467409</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="L12" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="N12" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="O12" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="P12" t="n">
         <v>1089.751822183213</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1637.04690565377</v>
+        <v>2221.516040882185</v>
       </c>
       <c r="C14" t="n">
-        <v>1198.904432837193</v>
+        <v>1783.373568065608</v>
       </c>
       <c r="D14" t="n">
-        <v>762.9946480116378</v>
+        <v>1347.463783240052</v>
       </c>
       <c r="E14" t="n">
-        <v>329.2199031699329</v>
+        <v>913.6890383983475</v>
       </c>
       <c r="F14" t="n">
-        <v>84.84056680367922</v>
+        <v>485.8216088075553</v>
       </c>
       <c r="G14" t="n">
-        <v>84.84056680367922</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H14" t="n">
-        <v>84.84056680367922</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I14" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J14" t="n">
-        <v>519.6784648837371</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K14" t="n">
-        <v>1354.028756841915</v>
+        <v>918.7740693889972</v>
       </c>
       <c r="L14" t="n">
-        <v>1354.028756841915</v>
+        <v>1963.518315095385</v>
       </c>
       <c r="M14" t="n">
-        <v>1354.028756841915</v>
+        <v>1963.518315095385</v>
       </c>
       <c r="N14" t="n">
-        <v>1697.046479425607</v>
+        <v>1963.518315095385</v>
       </c>
       <c r="O14" t="n">
-        <v>2677.226145995913</v>
+        <v>2943.697981665691</v>
       </c>
       <c r="P14" t="n">
-        <v>3505.53602082931</v>
+        <v>3772.007856499088</v>
       </c>
       <c r="Q14" t="n">
-        <v>4052.034806787904</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R14" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S14" t="n">
-        <v>4137.536997724798</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T14" t="n">
-        <v>3917.469770597837</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U14" t="n">
-        <v>3658.247467914854</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="V14" t="n">
-        <v>3295.63051784868</v>
+        <v>3880.099653077095</v>
       </c>
       <c r="W14" t="n">
-        <v>2890.775063259714</v>
+        <v>3475.244198488128</v>
       </c>
       <c r="X14" t="n">
-        <v>2471.632599839024</v>
+        <v>3056.101735067439</v>
       </c>
       <c r="Y14" t="n">
-        <v>2063.346476138678</v>
+        <v>2647.815611367093</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>126.1594296146068</v>
       </c>
       <c r="H15" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I15" t="n">
         <v>110.4874505912768</v>
@@ -5424,16 +5424,16 @@
         <v>426.7221064432354</v>
       </c>
       <c r="F16" t="n">
-        <v>250.0150524049916</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G16" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H16" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I16" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J16" t="n">
         <v>171.0034625955091</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
         <v>2090.757574835212</v>
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5992,49 +5992,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1694.563362934248</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
         <v>2090.757574835212</v>
@@ -6451,64 +6451,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423626</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993932</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.389162827329</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785923</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6688,28 +6688,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1637.04690565377</v>
+        <v>1940.766006596893</v>
       </c>
       <c r="C41" t="n">
-        <v>1637.04690565377</v>
+        <v>1502.623533780317</v>
       </c>
       <c r="D41" t="n">
-        <v>1637.010727169696</v>
+        <v>1235.61289579296</v>
       </c>
       <c r="E41" t="n">
-        <v>1203.235982327991</v>
+        <v>801.8381509512552</v>
       </c>
       <c r="F41" t="n">
-        <v>775.368552737199</v>
+        <v>373.970721360463</v>
       </c>
       <c r="G41" t="n">
         <v>373.970721360463</v>
       </c>
       <c r="H41" t="n">
-        <v>84.84056680367922</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I41" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J41" t="n">
-        <v>84.42377743081923</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K41" t="n">
-        <v>918.7740693889972</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L41" t="n">
-        <v>1963.518315095385</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="M41" t="n">
-        <v>1963.518315095385</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="N41" t="n">
-        <v>3008.262560801772</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O41" t="n">
-        <v>3988.442227372079</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P41" t="n">
-        <v>3988.442227372079</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q41" t="n">
         <v>4052.034806787904</v>
       </c>
       <c r="R41" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S41" t="n">
-        <v>4137.536997724798</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T41" t="n">
-        <v>3917.469770597837</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U41" t="n">
-        <v>3658.247467914854</v>
+        <v>3961.966568857977</v>
       </c>
       <c r="V41" t="n">
-        <v>3295.63051784868</v>
+        <v>3599.349618791804</v>
       </c>
       <c r="W41" t="n">
-        <v>2890.775063259714</v>
+        <v>3194.494164202837</v>
       </c>
       <c r="X41" t="n">
-        <v>2471.632599839024</v>
+        <v>2775.351700782148</v>
       </c>
       <c r="Y41" t="n">
-        <v>2063.346476138678</v>
+        <v>2367.065577081801</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>126.1594296146068</v>
       </c>
       <c r="H42" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I42" t="n">
         <v>110.4874505912768</v>
@@ -7560,13 +7560,13 @@
         <v>268.2542214476757</v>
       </c>
       <c r="G43" t="n">
-        <v>102.6629464735034</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="H43" t="n">
-        <v>84.42377743081923</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="I43" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J43" t="n">
         <v>171.0034625955091</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1637.04690565377</v>
+        <v>2221.516040882185</v>
       </c>
       <c r="C44" t="n">
-        <v>1637.04690565377</v>
+        <v>1783.373568065608</v>
       </c>
       <c r="D44" t="n">
-        <v>1637.010727169696</v>
+        <v>1347.463783240052</v>
       </c>
       <c r="E44" t="n">
-        <v>1203.235982327991</v>
+        <v>913.6890383983475</v>
       </c>
       <c r="F44" t="n">
-        <v>775.368552737199</v>
+        <v>485.8216088075553</v>
       </c>
       <c r="G44" t="n">
-        <v>373.970721360463</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H44" t="n">
-        <v>84.84056680367922</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I44" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J44" t="n">
-        <v>519.6784648837371</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K44" t="n">
-        <v>1354.028756841915</v>
+        <v>918.7740693889972</v>
       </c>
       <c r="L44" t="n">
-        <v>1697.046479425607</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="M44" t="n">
-        <v>1697.046479425607</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="N44" t="n">
-        <v>1697.046479425607</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O44" t="n">
-        <v>2677.226145995913</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P44" t="n">
-        <v>3505.53602082931</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q44" t="n">
         <v>4052.034806787904</v>
       </c>
       <c r="R44" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S44" t="n">
-        <v>4137.536997724798</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T44" t="n">
-        <v>3917.469770597837</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="U44" t="n">
-        <v>3658.247467914854</v>
+        <v>3880.099653077095</v>
       </c>
       <c r="V44" t="n">
-        <v>3295.63051784868</v>
+        <v>3880.099653077095</v>
       </c>
       <c r="W44" t="n">
-        <v>2890.775063259714</v>
+        <v>3475.244198488128</v>
       </c>
       <c r="X44" t="n">
-        <v>2471.632599839024</v>
+        <v>3056.101735067439</v>
       </c>
       <c r="Y44" t="n">
-        <v>2063.346476138678</v>
+        <v>2647.815611367093</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>126.1594296146068</v>
       </c>
       <c r="H45" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I45" t="n">
         <v>110.4874505912768</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>997.6039452442234</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C46" t="n">
-        <v>825.0422337274483</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D46" t="n">
-        <v>825.0422337274483</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E46" t="n">
-        <v>655.2842299781855</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F46" t="n">
-        <v>478.5771759399417</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G46" t="n">
-        <v>312.9859009657694</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H46" t="n">
-        <v>173.0837266561439</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I46" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J46" t="n">
         <v>171.0034625955091</v>
@@ -7830,28 +7830,28 @@
         <v>2701.083387333619</v>
       </c>
       <c r="R46" t="n">
-        <v>2679.665566038991</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S46" t="n">
-        <v>2679.665566038991</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T46" t="n">
-        <v>2433.786119617446</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U46" t="n">
-        <v>2155.353118870551</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V46" t="n">
-        <v>1868.397610740981</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W46" t="n">
-        <v>1596.371206327273</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X46" t="n">
-        <v>1350.979451660686</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y46" t="n">
-        <v>1123.559780974794</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8218,11 +8218,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L5" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8458,13 +8458,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>346.4825480643344</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>990.0804712831379</v>
@@ -8473,10 +8473,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>14.06699756460148</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>346.4825480643344</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8710,10 +8710,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>453.7181970119927</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>346.4825480643353</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8947,10 +8947,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>453.7181970119927</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,22 +9172,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>756.3484258820577</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>-3.292261534887825e-13</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1055.29721788524</v>
+        <v>346.4825480643344</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.23492870285418</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>346.4825480643353</v>
+        <v>786.1337475117263</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>362.2159405796214</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22606,16 +22606,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>127.7235737540311</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22716,13 +22716,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>103.1553467313942</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>3.14686572942469</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22837,13 +22837,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>153.5188177531626</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>146.5783086406731</v>
       </c>
     </row>
     <row r="6">
@@ -22959,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S7" t="n">
-        <v>140.7232059832936</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23029,10 +23029,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>44.3033100086256</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>63.27618136103541</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>44.3033100086256</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.723854615163404</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>181.6532122922932</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>21.31245428628529</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5148702780668</v>
+        <v>167.2101553698166</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>69.7165723808141</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142719</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5148702780668</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>219.63366331062</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.20415515853259</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448618.3765930353</v>
+        <v>448618.3765930354</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607523.0640226754</v>
+        <v>607523.0640226753</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>698888.5997108205</v>
+        <v>698888.5997108204</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>698888.5997108205</v>
+        <v>698888.5997108204</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607523.0640226754</v>
+        <v>607523.0640226753</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>607523.0640226754</v>
+        <v>607523.0640226753</v>
       </c>
     </row>
   </sheetData>
@@ -26322,7 +26322,7 @@
         <v>228990.8105176903</v>
       </c>
       <c r="E2" t="n">
-        <v>228990.8105176903</v>
+        <v>228990.8105176902</v>
       </c>
       <c r="F2" t="n">
         <v>228990.8105176903</v>
@@ -26352,7 +26352,7 @@
         <v>263428.7920686761</v>
       </c>
       <c r="O2" t="n">
-        <v>228990.8105176902</v>
+        <v>228990.8105176903</v>
       </c>
       <c r="P2" t="n">
         <v>228990.8105176903</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61110.89210613183</v>
+        <v>61110.8921061319</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>98144.1370162042</v>
+        <v>98144.13701620419</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>26396.92784106698</v>
       </c>
       <c r="D4" t="n">
-        <v>35746.95848301868</v>
+        <v>35746.95848301869</v>
       </c>
       <c r="E4" t="n">
         <v>35746.95848301868</v>
@@ -26432,7 +26432,7 @@
         <v>35746.95848301869</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
         <v>41122.95192991272</v>
@@ -26456,7 +26456,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>35746.95848301869</v>
+        <v>35746.95848301868</v>
       </c>
       <c r="P4" t="n">
         <v>35746.95848301869</v>
@@ -26481,7 +26481,7 @@
         <v>64162.0708474226</v>
       </c>
       <c r="F5" t="n">
-        <v>64162.07084742261</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>64162.07084742261</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="P5" t="n">
-        <v>64162.07084742261</v>
+        <v>64162.0708474226</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155213.536757917</v>
+        <v>-155708.4269864982</v>
       </c>
       <c r="C6" t="n">
-        <v>68486.16182612789</v>
+        <v>67991.27159754664</v>
       </c>
       <c r="D6" t="n">
-        <v>-25002.54497584453</v>
+        <v>-25197.95922298207</v>
       </c>
       <c r="E6" t="n">
-        <v>129081.781187249</v>
+        <v>128886.3669401114</v>
       </c>
       <c r="F6" t="n">
-        <v>129081.781187249</v>
+        <v>128886.3669401114</v>
       </c>
       <c r="G6" t="n">
-        <v>83476.70942683902</v>
+        <v>83453.48508745633</v>
       </c>
       <c r="H6" t="n">
-        <v>144587.6015329708</v>
+        <v>144564.3771935882</v>
       </c>
       <c r="I6" t="n">
-        <v>144587.6015329708</v>
+        <v>144564.3771935882</v>
       </c>
       <c r="J6" t="n">
-        <v>-30063.74718473526</v>
+        <v>-30086.97152411791</v>
       </c>
       <c r="K6" t="n">
-        <v>144587.6015329709</v>
+        <v>144564.3771935882</v>
       </c>
       <c r="L6" t="n">
-        <v>46443.46451676667</v>
+        <v>46420.24017738403</v>
       </c>
       <c r="M6" t="n">
-        <v>144587.6015329708</v>
+        <v>144564.3771935882</v>
       </c>
       <c r="N6" t="n">
-        <v>144587.6015329708</v>
+        <v>144564.3771935882</v>
       </c>
       <c r="O6" t="n">
-        <v>129081.7811872489</v>
+        <v>128886.3669401114</v>
       </c>
       <c r="P6" t="n">
-        <v>129081.781187249</v>
+        <v>128886.3669401114</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>222.963285499505</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>222.963285499505</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34938,11 +34938,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L5" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35178,25 +35178,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>346.4825480643344</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P8" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>14.06699756460148</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>346.4825480643344</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35430,10 +35430,10 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>453.7181970119927</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>346.4825480643353</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35667,10 +35667,10 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>453.7181970119927</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36360,19 +36360,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>756.3484258820577</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458546</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1055.29721788524</v>
+        <v>346.4825480643344</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.23492870285418</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697544</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>346.4825480643353</v>
+        <v>786.1337475117263</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
